--- a/src/main/resources/FeatureFiles/DownloadGetStartedPageKubernetesOperatorTabTestCases.xlsx
+++ b/src/main/resources/FeatureFiles/DownloadGetStartedPageKubernetesOperatorTabTestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/CouchBase/src/main/resources/FeatureFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE79A6F-31CC-894D-BD04-BBB06BCFDF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15424D2E-76B4-BC44-BC3D-0ECC8DC9F08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="104">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -58,12 +58,6 @@
   </si>
   <si>
     <t>textBoxMustHaveValue</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>All fields are valid</t>
   </si>
   <si>
     <t>gotoUrl</t>
@@ -337,6 +331,9 @@
   </si>
   <si>
     <t>{BaseURL}+/downloads/get-started/</t>
+  </si>
+  <si>
+    <t>Tags</t>
   </si>
 </sst>
 </file>
@@ -720,7 +717,7 @@
   <dimension ref="A1:E1272"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -746,29 +743,27 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -776,7 +771,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -784,12 +779,12 @@
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -797,7 +792,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -805,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -813,12 +808,12 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -826,13 +821,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -840,7 +835,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -848,7 +843,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -856,10 +851,10 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
@@ -867,10 +862,10 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
@@ -878,10 +873,10 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
@@ -889,7 +884,7 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
@@ -897,12 +892,12 @@
         <v>4</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
@@ -910,10 +905,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
@@ -921,10 +916,10 @@
         <v>11</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
@@ -932,10 +927,10 @@
         <v>5</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
@@ -943,10 +938,10 @@
         <v>11</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
@@ -954,10 +949,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
@@ -965,10 +960,10 @@
         <v>11</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
@@ -976,10 +971,10 @@
         <v>5</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
@@ -987,10 +982,10 @@
         <v>11</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
@@ -998,7 +993,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>8</v>
@@ -1009,7 +1004,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>8</v>
@@ -1020,10 +1015,10 @@
         <v>7</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1031,10 +1026,10 @@
         <v>7</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1042,7 +1037,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -1051,7 +1046,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1059,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1067,13 +1062,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1081,7 +1076,7 @@
         <v>9</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1089,7 +1084,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1097,10 +1092,10 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1108,10 +1103,10 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1119,10 +1114,10 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1130,7 +1125,7 @@
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1138,12 +1133,12 @@
         <v>4</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1151,10 +1146,10 @@
         <v>7</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1162,7 +1157,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D48" s="3"/>
     </row>
@@ -1171,10 +1166,10 @@
         <v>5</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
@@ -1182,10 +1177,10 @@
         <v>11</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
@@ -1193,10 +1188,10 @@
         <v>5</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
@@ -1204,10 +1199,10 @@
         <v>11</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
@@ -1215,10 +1210,10 @@
         <v>5</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
@@ -1226,10 +1221,10 @@
         <v>11</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
@@ -1237,10 +1232,10 @@
         <v>5</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
@@ -1248,10 +1243,10 @@
         <v>11</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
@@ -1259,10 +1254,10 @@
         <v>5</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
@@ -1270,10 +1265,10 @@
         <v>11</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
@@ -1281,7 +1276,7 @@
         <v>5</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>8</v>
@@ -1292,7 +1287,7 @@
         <v>11</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>8</v>
@@ -1303,10 +1298,10 @@
         <v>7</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
@@ -1314,7 +1309,7 @@
         <v>9</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D62" s="3"/>
     </row>
@@ -1323,7 +1318,7 @@
         <v>9</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
@@ -1331,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1339,13 +1334,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1353,7 +1348,7 @@
         <v>9</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1361,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1369,10 +1364,10 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -1380,10 +1375,10 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -1391,10 +1386,10 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1402,7 +1397,7 @@
         <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -1410,12 +1405,12 @@
         <v>4</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1423,10 +1418,10 @@
         <v>5</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -1434,10 +1429,10 @@
         <v>11</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -1445,10 +1440,10 @@
         <v>5</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1456,10 +1451,10 @@
         <v>11</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,10 +1462,10 @@
         <v>5</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -1478,10 +1473,10 @@
         <v>11</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -1489,10 +1484,10 @@
         <v>5</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -1500,10 +1495,10 @@
         <v>11</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -1511,7 +1506,7 @@
         <v>5</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>8</v>
@@ -1522,7 +1517,7 @@
         <v>11</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>8</v>
@@ -1533,10 +1528,10 @@
         <v>7</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -1544,10 +1539,10 @@
         <v>7</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -1555,7 +1550,7 @@
         <v>4</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -1563,10 +1558,10 @@
         <v>7</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -1574,7 +1569,7 @@
         <v>4</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D89" s="5"/>
     </row>
@@ -1583,7 +1578,7 @@
         <v>9</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D90" s="5"/>
     </row>
@@ -1592,7 +1587,7 @@
         <v>9</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D91" s="3"/>
     </row>
@@ -1601,7 +1596,7 @@
         <v>9</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -1609,7 +1604,7 @@
         <v>4</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -1618,13 +1613,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -1632,7 +1627,7 @@
         <v>9</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.2">
@@ -1640,7 +1635,7 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
@@ -1648,10 +1643,10 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
@@ -1659,10 +1654,10 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.2">
@@ -1670,10 +1665,10 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
@@ -1681,7 +1676,7 @@
         <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
@@ -1689,12 +1684,12 @@
         <v>4</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.2">
@@ -1702,10 +1697,10 @@
         <v>5</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.2">
@@ -1713,10 +1708,10 @@
         <v>11</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
@@ -1724,10 +1719,10 @@
         <v>5</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.2">
@@ -1735,10 +1730,10 @@
         <v>11</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.2">
@@ -1746,10 +1741,10 @@
         <v>5</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.2">
@@ -1757,10 +1752,10 @@
         <v>11</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.2">
@@ -1768,7 +1763,7 @@
         <v>5</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>8</v>
@@ -1779,7 +1774,7 @@
         <v>11</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>8</v>
@@ -1790,10 +1785,10 @@
         <v>7</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -1801,10 +1796,10 @@
         <v>7</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -1812,7 +1807,7 @@
         <v>9</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D114" s="3"/>
     </row>
@@ -1821,7 +1816,7 @@
         <v>9</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -1829,7 +1824,7 @@
         <v>4</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -1837,13 +1832,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -1851,7 +1846,7 @@
         <v>9</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -1859,7 +1854,7 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -1867,10 +1862,10 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -1878,10 +1873,10 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -1889,10 +1884,10 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -1900,7 +1895,7 @@
         <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -1908,12 +1903,12 @@
         <v>4</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B126" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -1921,10 +1916,10 @@
         <v>5</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -1932,10 +1927,10 @@
         <v>11</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -1943,10 +1938,10 @@
         <v>5</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -1954,10 +1949,10 @@
         <v>11</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -1965,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -1976,10 +1971,10 @@
         <v>11</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -1987,7 +1982,7 @@
         <v>5</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>8</v>
@@ -1998,7 +1993,7 @@
         <v>11</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>8</v>
@@ -2009,10 +2004,10 @@
         <v>7</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -2020,10 +2015,10 @@
         <v>7</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -2031,7 +2026,7 @@
         <v>9</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D137" s="3"/>
     </row>
@@ -2040,7 +2035,7 @@
         <v>9</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -2048,7 +2043,7 @@
         <v>4</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -2057,13 +2052,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -2071,7 +2066,7 @@
         <v>9</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -2079,7 +2074,7 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -2087,10 +2082,10 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.2">
@@ -2098,10 +2093,10 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.2">
@@ -2109,10 +2104,10 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.2">
@@ -2120,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
@@ -2128,12 +2123,12 @@
         <v>4</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B149" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.2">
@@ -2141,10 +2136,10 @@
         <v>5</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.2">
@@ -2152,10 +2147,10 @@
         <v>11</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.2">
@@ -2163,10 +2158,10 @@
         <v>5</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.2">
@@ -2174,10 +2169,10 @@
         <v>11</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.2">
@@ -2185,10 +2180,10 @@
         <v>5</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
@@ -2196,10 +2191,10 @@
         <v>11</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.2">
@@ -2207,7 +2202,7 @@
         <v>5</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>8</v>
@@ -2218,7 +2213,7 @@
         <v>11</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>8</v>
@@ -2229,10 +2224,10 @@
         <v>7</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.2">
@@ -2240,10 +2235,10 @@
         <v>7</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.2">
@@ -2251,7 +2246,7 @@
         <v>9</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D160" s="3"/>
     </row>
@@ -2260,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -2268,7 +2263,7 @@
         <v>4</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -2277,13 +2272,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -2291,7 +2286,7 @@
         <v>9</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -2299,7 +2294,7 @@
         <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -2307,10 +2302,10 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -2318,10 +2313,10 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -2329,10 +2324,10 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -2340,7 +2335,7 @@
         <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -2348,12 +2343,12 @@
         <v>4</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B172" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -2361,10 +2356,10 @@
         <v>5</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -2372,10 +2367,10 @@
         <v>11</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -2383,10 +2378,10 @@
         <v>5</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -2394,10 +2389,10 @@
         <v>11</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -2405,10 +2400,10 @@
         <v>5</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -2416,10 +2411,10 @@
         <v>11</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -2427,7 +2422,7 @@
         <v>5</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>8</v>
@@ -2438,7 +2433,7 @@
         <v>11</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>8</v>
@@ -2449,10 +2444,10 @@
         <v>7</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -2460,10 +2455,10 @@
         <v>7</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -2471,7 +2466,7 @@
         <v>9</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D183" s="3"/>
     </row>
@@ -2480,7 +2475,7 @@
         <v>9</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -2488,7 +2483,7 @@
         <v>4</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -2496,13 +2491,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -2510,7 +2505,7 @@
         <v>9</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -2518,7 +2513,7 @@
         <v>4</v>
       </c>
       <c r="C189" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -2526,10 +2521,10 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -2537,10 +2532,10 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -2548,10 +2543,10 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.2">
@@ -2559,7 +2554,7 @@
         <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.2">
@@ -2567,12 +2562,12 @@
         <v>4</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B195" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.2">
@@ -2580,10 +2575,10 @@
         <v>5</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.2">
@@ -2591,10 +2586,10 @@
         <v>11</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
@@ -2602,10 +2597,10 @@
         <v>5</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.2">
@@ -2613,10 +2608,10 @@
         <v>11</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.2">
@@ -2624,10 +2619,10 @@
         <v>5</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.2">
@@ -2635,10 +2630,10 @@
         <v>11</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.2">
@@ -2646,10 +2641,10 @@
         <v>5</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.2">
@@ -2657,10 +2652,10 @@
         <v>11</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.2">
@@ -2668,10 +2663,10 @@
         <v>7</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
@@ -2679,10 +2674,10 @@
         <v>7</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.2">
@@ -2690,7 +2685,7 @@
         <v>9</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D206" s="3"/>
     </row>
@@ -2699,7 +2694,7 @@
         <v>9</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.2">
@@ -2707,7 +2702,7 @@
         <v>4</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -2716,13 +2711,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -2730,7 +2725,7 @@
         <v>9</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -2738,7 +2733,7 @@
         <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -2746,10 +2741,10 @@
         <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -2757,10 +2752,10 @@
         <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -2768,10 +2763,10 @@
         <v>7</v>
       </c>
       <c r="C215" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -2779,7 +2774,7 @@
         <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -2787,12 +2782,12 @@
         <v>4</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B218" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -2800,10 +2795,10 @@
         <v>5</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -2811,10 +2806,10 @@
         <v>11</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -2822,10 +2817,10 @@
         <v>5</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -2833,10 +2828,10 @@
         <v>11</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -2844,10 +2839,10 @@
         <v>5</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -2855,10 +2850,10 @@
         <v>11</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -2866,10 +2861,10 @@
         <v>5</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -2877,10 +2872,10 @@
         <v>11</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -2888,7 +2883,7 @@
         <v>5</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>8</v>
@@ -2899,7 +2894,7 @@
         <v>11</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>8</v>
@@ -2907,13 +2902,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -2921,10 +2916,10 @@
         <v>7</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -2932,7 +2927,7 @@
         <v>9</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D231" s="3"/>
     </row>
@@ -2941,7 +2936,7 @@
         <v>9</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -2949,7 +2944,7 @@
         <v>4</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -2957,13 +2952,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -2971,7 +2966,7 @@
         <v>9</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -2979,7 +2974,7 @@
         <v>4</v>
       </c>
       <c r="C237" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -2987,10 +2982,10 @@
         <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -2998,10 +2993,10 @@
         <v>7</v>
       </c>
       <c r="C239" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -3009,10 +3004,10 @@
         <v>7</v>
       </c>
       <c r="C240" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.2">
@@ -3020,7 +3015,7 @@
         <v>9</v>
       </c>
       <c r="C241" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.2">
@@ -3028,12 +3023,12 @@
         <v>4</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B243" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.2">
@@ -3041,10 +3036,10 @@
         <v>5</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.2">
@@ -3052,10 +3047,10 @@
         <v>11</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.2">
@@ -3063,10 +3058,10 @@
         <v>5</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
@@ -3074,10 +3069,10 @@
         <v>11</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.2">
@@ -3085,10 +3080,10 @@
         <v>5</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.2">
@@ -3096,10 +3091,10 @@
         <v>11</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.2">
@@ -3107,10 +3102,10 @@
         <v>5</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.2">
@@ -3118,10 +3113,10 @@
         <v>11</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.2">
@@ -3129,7 +3124,7 @@
         <v>5</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>8</v>
@@ -3140,7 +3135,7 @@
         <v>11</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>8</v>
@@ -3151,10 +3146,10 @@
         <v>7</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.2">
@@ -3162,7 +3157,7 @@
         <v>9</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D255" s="3"/>
     </row>
@@ -3171,7 +3166,7 @@
         <v>9</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -3179,7 +3174,7 @@
         <v>4</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -3189,13 +3184,13 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -3203,7 +3198,7 @@
         <v>9</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -3211,7 +3206,7 @@
         <v>4</v>
       </c>
       <c r="C261" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -3219,10 +3214,10 @@
         <v>7</v>
       </c>
       <c r="C262" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -3230,10 +3225,10 @@
         <v>7</v>
       </c>
       <c r="C263" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -3241,10 +3236,10 @@
         <v>7</v>
       </c>
       <c r="C264" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -3252,7 +3247,7 @@
         <v>9</v>
       </c>
       <c r="C265" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -3260,12 +3255,12 @@
         <v>4</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B267" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -3273,10 +3268,10 @@
         <v>5</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -3284,10 +3279,10 @@
         <v>11</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -3295,10 +3290,10 @@
         <v>5</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -3306,10 +3301,10 @@
         <v>11</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -3317,10 +3312,10 @@
         <v>5</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -3328,10 +3323,10 @@
         <v>11</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -3339,10 +3334,10 @@
         <v>5</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -3350,10 +3345,10 @@
         <v>11</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -3361,7 +3356,7 @@
         <v>5</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>8</v>
@@ -3372,7 +3367,7 @@
         <v>11</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>8</v>
@@ -3383,10 +3378,10 @@
         <v>7</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -3394,10 +3389,10 @@
         <v>7</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -3405,7 +3400,7 @@
         <v>9</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -3413,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -3421,13 +3416,13 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -3435,7 +3430,7 @@
         <v>9</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -3443,7 +3438,7 @@
         <v>4</v>
       </c>
       <c r="C285" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -3451,10 +3446,10 @@
         <v>7</v>
       </c>
       <c r="C286" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -3462,10 +3457,10 @@
         <v>7</v>
       </c>
       <c r="C287" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -3473,10 +3468,10 @@
         <v>7</v>
       </c>
       <c r="C288" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.2">
@@ -3484,7 +3479,7 @@
         <v>9</v>
       </c>
       <c r="C289" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.2">
@@ -3492,12 +3487,12 @@
         <v>4</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B291" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.2">
@@ -3505,10 +3500,10 @@
         <v>7</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.2">
@@ -3516,10 +3511,10 @@
         <v>5</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.2">
@@ -3527,10 +3522,10 @@
         <v>11</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.2">
@@ -3538,10 +3533,10 @@
         <v>5</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.2">
@@ -3549,10 +3544,10 @@
         <v>11</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="297" spans="2:4" x14ac:dyDescent="0.2">
@@ -3560,10 +3555,10 @@
         <v>5</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.2">
@@ -3571,10 +3566,10 @@
         <v>11</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.2">
@@ -3582,10 +3577,10 @@
         <v>5</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.2">
@@ -3593,10 +3588,10 @@
         <v>11</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.2">
@@ -3604,7 +3599,7 @@
         <v>5</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>8</v>
@@ -3615,7 +3610,7 @@
         <v>11</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>8</v>
@@ -3626,10 +3621,10 @@
         <v>7</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.2">
@@ -3637,7 +3632,7 @@
         <v>9</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D304" s="3"/>
     </row>
@@ -3646,7 +3641,7 @@
         <v>9</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -3654,7 +3649,7 @@
         <v>4</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -3663,13 +3658,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -3677,7 +3672,7 @@
         <v>9</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -3685,7 +3680,7 @@
         <v>4</v>
       </c>
       <c r="C310" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -3693,10 +3688,10 @@
         <v>7</v>
       </c>
       <c r="C311" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -3704,10 +3699,10 @@
         <v>7</v>
       </c>
       <c r="C312" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -3715,10 +3710,10 @@
         <v>7</v>
       </c>
       <c r="C313" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -3726,7 +3721,7 @@
         <v>9</v>
       </c>
       <c r="C314" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -3734,12 +3729,12 @@
         <v>4</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B316" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -3747,10 +3742,10 @@
         <v>5</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -3758,10 +3753,10 @@
         <v>11</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -3769,10 +3764,10 @@
         <v>5</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -3780,10 +3775,10 @@
         <v>11</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -3791,10 +3786,10 @@
         <v>5</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -3802,10 +3797,10 @@
         <v>11</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -3813,10 +3808,10 @@
         <v>5</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -3824,10 +3819,10 @@
         <v>11</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -3835,7 +3830,7 @@
         <v>5</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>8</v>
@@ -3846,7 +3841,7 @@
         <v>11</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>8</v>
@@ -3857,10 +3852,10 @@
         <v>7</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -3868,10 +3863,10 @@
         <v>7</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -3879,7 +3874,7 @@
         <v>4</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D329" s="5"/>
     </row>
@@ -3888,7 +3883,7 @@
         <v>9</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D330" s="5"/>
     </row>
@@ -3897,7 +3892,7 @@
         <v>9</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D331" s="3"/>
     </row>
@@ -3906,7 +3901,7 @@
         <v>9</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -3914,7 +3909,7 @@
         <v>4</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -3923,13 +3918,13 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
@@ -3937,7 +3932,7 @@
         <v>9</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="337" spans="2:4" x14ac:dyDescent="0.2">
@@ -3945,7 +3940,7 @@
         <v>4</v>
       </c>
       <c r="C337" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.2">
@@ -3953,10 +3948,10 @@
         <v>7</v>
       </c>
       <c r="C338" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.2">
@@ -3964,10 +3959,10 @@
         <v>7</v>
       </c>
       <c r="C339" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.2">
@@ -3975,10 +3970,10 @@
         <v>7</v>
       </c>
       <c r="C340" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.2">
@@ -3986,7 +3981,7 @@
         <v>9</v>
       </c>
       <c r="C341" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.2">
@@ -3994,12 +3989,12 @@
         <v>4</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B343" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.2">
@@ -4007,10 +4002,10 @@
         <v>5</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.2">
@@ -4018,10 +4013,10 @@
         <v>11</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.2">
@@ -4029,10 +4024,10 @@
         <v>5</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.2">
@@ -4040,10 +4035,10 @@
         <v>11</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.2">
@@ -4051,10 +4046,10 @@
         <v>5</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.2">
@@ -4062,10 +4057,10 @@
         <v>11</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.2">
@@ -4073,10 +4068,10 @@
         <v>5</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.2">
@@ -4084,10 +4079,10 @@
         <v>11</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.2">
@@ -4095,7 +4090,7 @@
         <v>5</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>8</v>
@@ -4106,7 +4101,7 @@
         <v>11</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>8</v>
@@ -4117,10 +4112,10 @@
         <v>7</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -4128,10 +4123,10 @@
         <v>7</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -4139,7 +4134,7 @@
         <v>9</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D356" s="3"/>
     </row>
@@ -4148,7 +4143,7 @@
         <v>9</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -4156,18 +4151,18 @@
         <v>4</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
@@ -4175,7 +4170,7 @@
         <v>9</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -4183,7 +4178,7 @@
         <v>4</v>
       </c>
       <c r="C362" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -4191,10 +4186,10 @@
         <v>7</v>
       </c>
       <c r="C363" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
@@ -4202,10 +4197,10 @@
         <v>7</v>
       </c>
       <c r="C364" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -4213,10 +4208,10 @@
         <v>7</v>
       </c>
       <c r="C365" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -4224,7 +4219,7 @@
         <v>9</v>
       </c>
       <c r="C366" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -4232,12 +4227,12 @@
         <v>4</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B368" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="369" spans="2:4" x14ac:dyDescent="0.2">
@@ -4245,10 +4240,10 @@
         <v>5</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="370" spans="2:4" x14ac:dyDescent="0.2">
@@ -4256,10 +4251,10 @@
         <v>11</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.2">
@@ -4267,10 +4262,10 @@
         <v>5</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="372" spans="2:4" x14ac:dyDescent="0.2">
@@ -4278,10 +4273,10 @@
         <v>11</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="373" spans="2:4" x14ac:dyDescent="0.2">
@@ -4289,10 +4284,10 @@
         <v>5</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="374" spans="2:4" x14ac:dyDescent="0.2">
@@ -4300,10 +4295,10 @@
         <v>11</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="375" spans="2:4" x14ac:dyDescent="0.2">
@@ -4311,10 +4306,10 @@
         <v>5</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="376" spans="2:4" x14ac:dyDescent="0.2">
@@ -4322,10 +4317,10 @@
         <v>11</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="377" spans="2:4" x14ac:dyDescent="0.2">
@@ -4333,7 +4328,7 @@
         <v>5</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D377" s="2" t="s">
         <v>8</v>
@@ -4344,7 +4339,7 @@
         <v>11</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>8</v>
@@ -4355,10 +4350,10 @@
         <v>7</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="380" spans="2:4" x14ac:dyDescent="0.2">
@@ -4366,10 +4361,10 @@
         <v>7</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="381" spans="2:4" x14ac:dyDescent="0.2">
@@ -4377,7 +4372,7 @@
         <v>9</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D381" s="3"/>
     </row>
@@ -4386,7 +4381,7 @@
         <v>9</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="383" spans="2:4" x14ac:dyDescent="0.2">
@@ -4394,7 +4389,7 @@
         <v>4</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="384" spans="2:4" x14ac:dyDescent="0.2">
@@ -4402,13 +4397,13 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -4416,7 +4411,7 @@
         <v>9</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -4424,7 +4419,7 @@
         <v>4</v>
       </c>
       <c r="C387" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -4432,10 +4427,10 @@
         <v>7</v>
       </c>
       <c r="C388" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -4443,10 +4438,10 @@
         <v>7</v>
       </c>
       <c r="C389" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -4454,10 +4449,10 @@
         <v>7</v>
       </c>
       <c r="C390" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -4465,7 +4460,7 @@
         <v>9</v>
       </c>
       <c r="C391" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -4473,12 +4468,12 @@
         <v>4</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B393" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -4486,10 +4481,10 @@
         <v>5</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -4497,10 +4492,10 @@
         <v>11</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -4508,10 +4503,10 @@
         <v>5</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -4519,10 +4514,10 @@
         <v>11</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -4530,10 +4525,10 @@
         <v>5</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -4541,10 +4536,10 @@
         <v>11</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -4552,10 +4547,10 @@
         <v>5</v>
       </c>
       <c r="C400" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -4563,10 +4558,10 @@
         <v>11</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -4574,7 +4569,7 @@
         <v>5</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D402" s="2" t="s">
         <v>8</v>
@@ -4585,7 +4580,7 @@
         <v>11</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D403" s="2" t="s">
         <v>8</v>
@@ -4596,10 +4591,10 @@
         <v>7</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -4607,10 +4602,10 @@
         <v>7</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -4618,7 +4613,7 @@
         <v>9</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D406" s="3"/>
     </row>
@@ -4627,7 +4622,7 @@
         <v>9</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -4635,7 +4630,7 @@
         <v>4</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -4643,13 +4638,13 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -4657,7 +4652,7 @@
         <v>9</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -4665,7 +4660,7 @@
         <v>4</v>
       </c>
       <c r="C412" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -4673,10 +4668,10 @@
         <v>7</v>
       </c>
       <c r="C413" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -4684,10 +4679,10 @@
         <v>7</v>
       </c>
       <c r="C414" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -4695,10 +4690,10 @@
         <v>7</v>
       </c>
       <c r="C415" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -4706,7 +4701,7 @@
         <v>9</v>
       </c>
       <c r="C416" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="417" spans="2:4" x14ac:dyDescent="0.2">
@@ -4714,12 +4709,12 @@
         <v>4</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="418" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B418" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="419" spans="2:4" x14ac:dyDescent="0.2">
@@ -4727,10 +4722,10 @@
         <v>5</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.2">
@@ -4738,10 +4733,10 @@
         <v>11</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.2">
@@ -4749,10 +4744,10 @@
         <v>5</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="422" spans="2:4" x14ac:dyDescent="0.2">
@@ -4760,10 +4755,10 @@
         <v>11</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.2">
@@ -4771,10 +4766,10 @@
         <v>5</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.2">
@@ -4782,10 +4777,10 @@
         <v>11</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="425" spans="2:4" x14ac:dyDescent="0.2">
@@ -4793,10 +4788,10 @@
         <v>5</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="426" spans="2:4" x14ac:dyDescent="0.2">
@@ -4804,10 +4799,10 @@
         <v>11</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.2">
@@ -4815,7 +4810,7 @@
         <v>5</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D427" s="2" t="s">
         <v>8</v>
@@ -4826,7 +4821,7 @@
         <v>11</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D428" s="2" t="s">
         <v>8</v>
@@ -4837,10 +4832,10 @@
         <v>7</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="430" spans="2:4" x14ac:dyDescent="0.2">
@@ -4848,10 +4843,10 @@
         <v>7</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="431" spans="2:4" x14ac:dyDescent="0.2">
@@ -4859,7 +4854,7 @@
         <v>9</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D431" s="3"/>
     </row>
@@ -4868,7 +4863,7 @@
         <v>9</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
@@ -4876,7 +4871,7 @@
         <v>4</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
@@ -4884,13 +4879,13 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C435" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -4898,7 +4893,7 @@
         <v>9</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -4906,7 +4901,7 @@
         <v>4</v>
       </c>
       <c r="C437" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -4914,10 +4909,10 @@
         <v>7</v>
       </c>
       <c r="C438" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -4925,10 +4920,10 @@
         <v>7</v>
       </c>
       <c r="C439" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -4936,10 +4931,10 @@
         <v>7</v>
       </c>
       <c r="C440" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -4947,7 +4942,7 @@
         <v>9</v>
       </c>
       <c r="C441" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -4955,12 +4950,12 @@
         <v>4</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B443" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -4968,10 +4963,10 @@
         <v>5</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -4979,10 +4974,10 @@
         <v>11</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -4990,10 +4985,10 @@
         <v>5</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -5001,10 +4996,10 @@
         <v>11</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
@@ -5012,10 +5007,10 @@
         <v>5</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
@@ -5023,10 +5018,10 @@
         <v>11</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D449" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
@@ -5034,10 +5029,10 @@
         <v>5</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
@@ -5045,10 +5040,10 @@
         <v>11</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -5056,7 +5051,7 @@
         <v>5</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D452" s="2" t="s">
         <v>8</v>
@@ -5067,7 +5062,7 @@
         <v>11</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D453" s="2" t="s">
         <v>8</v>
@@ -5078,10 +5073,10 @@
         <v>7</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -5089,10 +5084,10 @@
         <v>7</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
@@ -5100,7 +5095,7 @@
         <v>9</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D456" s="3"/>
     </row>
@@ -5109,7 +5104,7 @@
         <v>9</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -5117,7 +5112,7 @@
         <v>4</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -5125,13 +5120,13 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -5139,7 +5134,7 @@
         <v>9</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
@@ -5147,7 +5142,7 @@
         <v>4</v>
       </c>
       <c r="C462" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
@@ -5155,10 +5150,10 @@
         <v>7</v>
       </c>
       <c r="C463" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
@@ -5166,10 +5161,10 @@
         <v>7</v>
       </c>
       <c r="C464" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="465" spans="2:4" x14ac:dyDescent="0.2">
@@ -5177,10 +5172,10 @@
         <v>7</v>
       </c>
       <c r="C465" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="466" spans="2:4" x14ac:dyDescent="0.2">
@@ -5188,7 +5183,7 @@
         <v>9</v>
       </c>
       <c r="C466" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="467" spans="2:4" x14ac:dyDescent="0.2">
@@ -5196,12 +5191,12 @@
         <v>4</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="468" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B468" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="469" spans="2:4" x14ac:dyDescent="0.2">
@@ -5209,10 +5204,10 @@
         <v>5</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.2">
@@ -5220,10 +5215,10 @@
         <v>11</v>
       </c>
       <c r="C470" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="471" spans="2:4" x14ac:dyDescent="0.2">
@@ -5231,10 +5226,10 @@
         <v>5</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="472" spans="2:4" x14ac:dyDescent="0.2">
@@ -5242,10 +5237,10 @@
         <v>11</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="473" spans="2:4" x14ac:dyDescent="0.2">
@@ -5253,10 +5248,10 @@
         <v>5</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="474" spans="2:4" x14ac:dyDescent="0.2">
@@ -5264,10 +5259,10 @@
         <v>11</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="475" spans="2:4" x14ac:dyDescent="0.2">
@@ -5275,10 +5270,10 @@
         <v>5</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="476" spans="2:4" x14ac:dyDescent="0.2">
@@ -5286,10 +5281,10 @@
         <v>11</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.2">
@@ -5297,10 +5292,10 @@
         <v>5</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="478" spans="2:4" x14ac:dyDescent="0.2">
@@ -5308,10 +5303,10 @@
         <v>11</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="479" spans="2:4" x14ac:dyDescent="0.2">
@@ -5319,10 +5314,10 @@
         <v>7</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="480" spans="2:4" x14ac:dyDescent="0.2">
@@ -5330,10 +5325,10 @@
         <v>7</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
@@ -5341,7 +5336,7 @@
         <v>9</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D481" s="3"/>
     </row>
@@ -5350,7 +5345,7 @@
         <v>9</v>
       </c>
       <c r="C482" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
@@ -5358,7 +5353,7 @@
         <v>4</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
@@ -5366,13 +5361,13 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C485" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -5380,7 +5375,7 @@
         <v>9</v>
       </c>
       <c r="C486" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
@@ -5388,7 +5383,7 @@
         <v>4</v>
       </c>
       <c r="C487" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
@@ -5396,10 +5391,10 @@
         <v>7</v>
       </c>
       <c r="C488" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
@@ -5407,10 +5402,10 @@
         <v>7</v>
       </c>
       <c r="C489" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
@@ -5418,10 +5413,10 @@
         <v>7</v>
       </c>
       <c r="C490" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
@@ -5429,7 +5424,7 @@
         <v>9</v>
       </c>
       <c r="C491" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
@@ -5437,12 +5432,12 @@
         <v>4</v>
       </c>
       <c r="C492" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B493" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -5450,10 +5445,10 @@
         <v>7</v>
       </c>
       <c r="C494" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -5461,7 +5456,7 @@
         <v>4</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D495" s="3"/>
     </row>
@@ -5470,10 +5465,10 @@
         <v>5</v>
       </c>
       <c r="C496" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D496" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="497" spans="2:4" x14ac:dyDescent="0.2">
@@ -5481,10 +5476,10 @@
         <v>11</v>
       </c>
       <c r="C497" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="498" spans="2:4" x14ac:dyDescent="0.2">
@@ -5492,10 +5487,10 @@
         <v>5</v>
       </c>
       <c r="C498" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="499" spans="2:4" x14ac:dyDescent="0.2">
@@ -5503,10 +5498,10 @@
         <v>11</v>
       </c>
       <c r="C499" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="500" spans="2:4" x14ac:dyDescent="0.2">
@@ -5514,10 +5509,10 @@
         <v>5</v>
       </c>
       <c r="C500" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="501" spans="2:4" x14ac:dyDescent="0.2">
@@ -5525,10 +5520,10 @@
         <v>11</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="502" spans="2:4" x14ac:dyDescent="0.2">
@@ -5536,10 +5531,10 @@
         <v>5</v>
       </c>
       <c r="C502" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D502" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="503" spans="2:4" x14ac:dyDescent="0.2">
@@ -5547,10 +5542,10 @@
         <v>11</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D503" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="504" spans="2:4" x14ac:dyDescent="0.2">
@@ -5558,10 +5553,10 @@
         <v>5</v>
       </c>
       <c r="C504" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="505" spans="2:4" x14ac:dyDescent="0.2">
@@ -5569,10 +5564,10 @@
         <v>11</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="506" spans="2:4" x14ac:dyDescent="0.2">
@@ -5580,7 +5575,7 @@
         <v>5</v>
       </c>
       <c r="C506" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D506" s="2" t="s">
         <v>8</v>
@@ -5591,7 +5586,7 @@
         <v>11</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D507" s="2" t="s">
         <v>8</v>
@@ -5602,10 +5597,10 @@
         <v>7</v>
       </c>
       <c r="C508" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D508" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="509" spans="2:4" x14ac:dyDescent="0.2">
@@ -5613,7 +5608,7 @@
         <v>9</v>
       </c>
       <c r="C509" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D509" s="3"/>
     </row>
@@ -5622,7 +5617,7 @@
         <v>9</v>
       </c>
       <c r="C510" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="511" spans="2:4" x14ac:dyDescent="0.2">
@@ -5630,7 +5625,7 @@
         <v>4</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="512" spans="2:4" x14ac:dyDescent="0.2">
@@ -8140,13 +8135,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2"/>
     </row>
@@ -8156,10 +8151,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8168,10 +8163,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8180,7 +8175,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -8190,7 +8185,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -8201,13 +8196,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D26" s="2"/>
     </row>
@@ -8217,10 +8212,10 @@
         <v>7</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -8229,10 +8224,10 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -8241,7 +8236,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D29" s="2"/>
     </row>
@@ -8251,7 +8246,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -8260,13 +8255,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D52" s="2"/>
     </row>
@@ -8276,10 +8271,10 @@
         <v>7</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -8288,10 +8283,10 @@
         <v>7</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -8300,7 +8295,7 @@
         <v>9</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D55" s="2"/>
     </row>
@@ -8310,7 +8305,7 @@
         <v>4</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D56" s="2"/>
     </row>
@@ -8322,13 +8317,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D72" s="2"/>
     </row>
@@ -8338,10 +8333,10 @@
         <v>7</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -8350,10 +8345,10 @@
         <v>7</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -8362,7 +8357,7 @@
         <v>9</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D75" s="2"/>
     </row>
@@ -8372,7 +8367,7 @@
         <v>4</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D76" s="2"/>
     </row>
@@ -8384,13 +8379,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D92" s="2"/>
     </row>
@@ -8400,10 +8395,10 @@
         <v>7</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -8412,10 +8407,10 @@
         <v>7</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -8424,7 +8419,7 @@
         <v>9</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D95" s="2"/>
     </row>
@@ -8434,7 +8429,7 @@
         <v>4</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D96" s="2"/>
     </row>
@@ -8446,13 +8441,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D112" s="2"/>
     </row>
@@ -8462,10 +8457,10 @@
         <v>7</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -8474,10 +8469,10 @@
         <v>7</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -8486,7 +8481,7 @@
         <v>9</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D115" s="2"/>
     </row>
@@ -8496,7 +8491,7 @@
         <v>4</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D116" s="2"/>
     </row>
@@ -8507,13 +8502,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D132" s="2"/>
     </row>
@@ -8523,10 +8518,10 @@
         <v>7</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -8535,10 +8530,10 @@
         <v>7</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -8547,7 +8542,7 @@
         <v>9</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D135" s="2"/>
     </row>
@@ -8557,7 +8552,7 @@
         <v>4</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D136" s="2"/>
     </row>
@@ -8568,13 +8563,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D152" s="2"/>
     </row>
@@ -8584,10 +8579,10 @@
         <v>7</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -8596,10 +8591,10 @@
         <v>7</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -8608,7 +8603,7 @@
         <v>9</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D155" s="2"/>
     </row>
@@ -8618,7 +8613,7 @@
         <v>4</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D156" s="2"/>
     </row>
@@ -8629,13 +8624,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D174" s="2"/>
     </row>
@@ -8645,10 +8640,10 @@
         <v>7</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -8657,10 +8652,10 @@
         <v>7</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -8669,7 +8664,7 @@
         <v>9</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D177" s="2"/>
     </row>
@@ -8679,7 +8674,7 @@
         <v>4</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D178" s="2"/>
     </row>
@@ -8690,13 +8685,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D195" s="2"/>
     </row>
@@ -8706,10 +8701,10 @@
         <v>7</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -8718,10 +8713,10 @@
         <v>7</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -8730,7 +8725,7 @@
         <v>9</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D198" s="2"/>
     </row>
@@ -8740,7 +8735,7 @@
         <v>4</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D199" s="2"/>
     </row>
@@ -8750,13 +8745,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D216" s="2"/>
     </row>
@@ -8766,10 +8761,10 @@
         <v>7</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -8778,10 +8773,10 @@
         <v>7</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -8790,7 +8785,7 @@
         <v>9</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D219" s="2"/>
     </row>
@@ -8800,7 +8795,7 @@
         <v>4</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D220" s="2"/>
     </row>
@@ -8811,13 +8806,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D238" s="2"/>
     </row>
@@ -8827,10 +8822,10 @@
         <v>7</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -8839,10 +8834,10 @@
         <v>7</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -8851,7 +8846,7 @@
         <v>9</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D241" s="2"/>
     </row>
@@ -8861,7 +8856,7 @@
         <v>4</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D242" s="2"/>
     </row>
@@ -8871,13 +8866,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D262" s="2"/>
     </row>
@@ -8887,10 +8882,10 @@
         <v>7</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -8899,10 +8894,10 @@
         <v>7</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -8911,7 +8906,7 @@
         <v>9</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D265" s="2"/>
     </row>
@@ -8921,7 +8916,7 @@
         <v>4</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D266" s="2"/>
     </row>
@@ -8930,13 +8925,13 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D284" s="2"/>
     </row>
@@ -8946,10 +8941,10 @@
         <v>7</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -8958,10 +8953,10 @@
         <v>7</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -8970,7 +8965,7 @@
         <v>9</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D287" s="2"/>
     </row>
@@ -8980,7 +8975,7 @@
         <v>4</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D288" s="2"/>
     </row>
@@ -8992,13 +8987,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D306" s="2"/>
     </row>
@@ -9008,10 +9003,10 @@
         <v>7</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
@@ -9020,10 +9015,10 @@
         <v>7</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -9032,7 +9027,7 @@
         <v>9</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D309" s="2"/>
     </row>
@@ -9042,7 +9037,7 @@
         <v>4</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D310" s="2"/>
     </row>
@@ -9054,13 +9049,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D328" s="2"/>
     </row>
@@ -9070,10 +9065,10 @@
         <v>7</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -9082,10 +9077,10 @@
         <v>7</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -9094,7 +9089,7 @@
         <v>9</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D331" s="2"/>
     </row>
@@ -9104,7 +9099,7 @@
         <v>4</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D332" s="2"/>
     </row>
@@ -9116,13 +9111,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D350" s="2"/>
     </row>
@@ -9132,10 +9127,10 @@
         <v>7</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -9144,10 +9139,10 @@
         <v>7</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -9156,7 +9151,7 @@
         <v>9</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D353" s="2"/>
     </row>
@@ -9166,7 +9161,7 @@
         <v>4</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D354" s="2"/>
     </row>
@@ -9178,13 +9173,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D372" s="2"/>
     </row>
@@ -9194,10 +9189,10 @@
         <v>7</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -9206,10 +9201,10 @@
         <v>7</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -9218,7 +9213,7 @@
         <v>9</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D375" s="2"/>
     </row>
@@ -9228,7 +9223,7 @@
         <v>4</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D376" s="2"/>
     </row>
@@ -9240,13 +9235,13 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D394" s="2"/>
     </row>
@@ -9256,10 +9251,10 @@
         <v>7</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -9268,10 +9263,10 @@
         <v>7</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -9280,7 +9275,7 @@
         <v>9</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D397" s="2"/>
     </row>
@@ -9290,7 +9285,7 @@
         <v>4</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D398" s="2"/>
     </row>
